--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3517,7 +3517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>183</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>208</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>212</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>225</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>235</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>252</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>271</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>280</v>
       </c>
@@ -8231,12 +8231,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP53">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-risk-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
